--- a/exchange_limits/exchange_limits_coinmex.xlsx
+++ b/exchange_limits/exchange_limits_coinmex.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="coinmex" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
   <si>
     <t>btc_usdt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,43 @@
   </si>
   <si>
     <t>ETC</t>
+  </si>
+  <si>
+    <t>btm_eth</t>
+  </si>
+  <si>
+    <t>eos_eth</t>
+  </si>
+  <si>
+    <t>eos_usdt</t>
+  </si>
+  <si>
+    <t>ETH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要Crossing Logic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -146,12 +183,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,11 +209,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -475,14 +519,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
@@ -676,7 +721,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -818,6 +863,98 @@
       </c>
       <c r="I12" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>1E-8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>1E-8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>1E-8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>1E-8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>1E-4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>1E-4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
